--- a/data/trans_dic/KIDM_A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,32 +729,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,72</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,82</t>
+          <t>0,0; 34,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,92</t>
+          <t>1,43; 13,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>0,0; 9,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,31</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,07</t>
+          <t>0,73; 6,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,56</t>
+          <t>0,67; 5,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,1</t>
+          <t>1,08; 9,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,02</t>
+          <t>0,0; 19,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,18</t>
+          <t>0,72; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,86</t>
+          <t>2,85; 7,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,88</t>
+          <t>0,08; 3,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,89</t>
+          <t>0,67; 4,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,92</t>
+          <t>1,41; 5,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,65</t>
+          <t>0,46; 2,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,86</t>
+          <t>0,28; 3,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,44</t>
+          <t>1,04; 3,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,98</t>
+          <t>2,69; 6,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,18</t>
+          <t>0,44; 2,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,55</t>
+          <t>0,41; 2,47</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>0,0; 9,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,4</t>
+          <t>0,92; 9,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,44</t>
+          <t>1,31; 10,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,73</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 8,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,73</t>
+          <t>0,64; 5,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,62</t>
+          <t>0,68; 5,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,74</t>
+          <t>0,95; 6,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,85; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,72</t>
+          <t>2,14; 5,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,4</t>
+          <t>0,77; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,39; 3,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,91</t>
+          <t>1,12; 3,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>1,72; 5,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,9</t>
+          <t>0,72; 2,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,42</t>
+          <t>0,38; 3,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,25</t>
+          <t>1,26; 3,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,88</t>
+          <t>2,35; 4,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>1,0; 2,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,64; 2,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,38%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1,95%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,43; 12,03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,22</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,67</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 9,99</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 2,95</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 34,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 13,1</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,69</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,13</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 32,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,05</t>
+          <t>0,73; 6,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,47</t>
+          <t>0,66; 5,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,15</t>
+          <t>1,09; 9,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,59</t>
+          <t>0,0; 21,19</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,98%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,02%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,24</t>
+          <t>0,68; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,71</t>
+          <t>1,43; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,51; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,36</t>
+          <t>0,25; 4,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,17</t>
+          <t>0,72; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,99</t>
+          <t>2,9; 8,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,79</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,96</t>
+          <t>0,08; 3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,46</t>
+          <t>1,05; 3,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,0</t>
+          <t>2,81; 6,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,24</t>
+          <t>0,48; 2,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,47</t>
+          <t>0,42; 2,61</t>
         </is>
       </c>
     </row>
@@ -936,44 +936,44 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>3,01%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4,13%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
           <t>2,14%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,64</t>
+          <t>0,0; 6,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>1,3; 10,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,85</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 2,42</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 9,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 9,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>0; 2,74</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,73</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 10,81</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,5</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,6</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,78</t>
+          <t>0,64; 6,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,46</t>
+          <t>0,68; 5,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,65</t>
+          <t>0,93; 5,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,52</t>
+          <t>0,96; 3,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,59</t>
+          <t>1,74; 5,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,57</t>
+          <t>0,73; 2,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,28</t>
+          <t>0,37; 3,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,76</t>
+          <t>0,82; 3,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,21</t>
+          <t>2,26; 5,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,87</t>
+          <t>0,79; 3,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,39</t>
+          <t>0,34; 3,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,1</t>
+          <t>1,28; 3,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,64</t>
+          <t>2,42; 4,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,67</t>
+          <t>0,96; 2,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,5</t>
+          <t>0,6; 2,4</t>
         </is>
       </c>
     </row>
